--- a/data/discharge.xlsx
+++ b/data/discharge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>516.89</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
